--- a/pos_progress.xlsx
+++ b/pos_progress.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="196">
   <si>
     <t>1k</t>
   </si>
@@ -581,6 +580,30 @@
   </si>
   <si>
     <t>d12</t>
+  </si>
+  <si>
+    <t>6'30''</t>
+  </si>
+  <si>
+    <t>5'30''</t>
+  </si>
+  <si>
+    <t>4'27''</t>
+  </si>
+  <si>
+    <t>3'50''</t>
+  </si>
+  <si>
+    <t>7'47''</t>
+  </si>
+  <si>
+    <t>7'53''</t>
+  </si>
+  <si>
+    <t>8'50''</t>
+  </si>
+  <si>
+    <t>9'53''</t>
   </si>
 </sst>
 </file>
@@ -596,7 +619,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,18 +744,6 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor rgb="FF99CCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -917,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1257,37 +1268,124 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1295,10 +1393,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,160 +1436,19 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="21" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="21" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="21" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="21" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="21" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1746,23 +1733,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78595968"/>
-        <c:axId val="78597504"/>
+        <c:axId val="92228224"/>
+        <c:axId val="95351168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78595968"/>
+        <c:axId val="92228224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78597504"/>
+        <c:crossAx val="95351168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78597504"/>
+        <c:axId val="95351168"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1771,7 +1758,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78595968"/>
+        <c:crossAx val="92228224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1780,7 +1767,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1809,7 +1796,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.11534064890824818"/>
+                  <c:x val="0.11534064890824819"/>
                   <c:y val="0.37160724701079034"/>
                 </c:manualLayout>
               </c:layout>
@@ -1991,23 +1978,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="66863872"/>
-        <c:axId val="66865408"/>
+        <c:axId val="96915840"/>
+        <c:axId val="96917376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66863872"/>
+        <c:axId val="96915840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66865408"/>
+        <c:crossAx val="96917376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66865408"/>
+        <c:axId val="96917376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2016,7 +2003,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66863872"/>
+        <c:crossAx val="96915840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2025,7 +2012,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2388,14 +2375,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q25" sqref="A23:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="6.7109375" style="1"/>
-    <col min="22" max="23" width="6.7109375" style="170"/>
+    <col min="22" max="23" width="6.7109375" style="143"/>
     <col min="24" max="24" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6.7109375" style="2"/>
@@ -2410,47 +2397,47 @@
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="160" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="135"/>
-      <c r="F2" s="132" t="s">
+      <c r="E2" s="161"/>
+      <c r="F2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="132"/>
-      <c r="H2" s="134" t="s">
+      <c r="G2" s="166"/>
+      <c r="H2" s="160" t="s">
         <v>134</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="132" t="s">
+      <c r="I2" s="161"/>
+      <c r="J2" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="132"/>
-      <c r="L2" s="132"/>
-      <c r="M2" s="132" t="s">
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="132"/>
-      <c r="O2" s="132"/>
-      <c r="P2" s="132" t="s">
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="132"/>
-      <c r="S2" s="132" t="s">
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="132"/>
-      <c r="U2" s="132"/>
-      <c r="V2" s="156" t="s">
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="164" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="156"/>
-      <c r="Y2" s="129" t="s">
+      <c r="W2" s="164"/>
+      <c r="Y2" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
+      <c r="Z2" s="165"/>
+      <c r="AA2" s="165"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
@@ -2462,56 +2449,56 @@
       <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="131"/>
-      <c r="F3" s="130" t="s">
+      <c r="E3" s="163"/>
+      <c r="F3" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="130" t="s">
+      <c r="G3" s="163"/>
+      <c r="H3" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="131"/>
-      <c r="J3" s="130" t="s">
+      <c r="I3" s="163"/>
+      <c r="J3" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="131"/>
+      <c r="K3" s="163"/>
       <c r="L3" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="130" t="s">
+      <c r="M3" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="131"/>
+      <c r="N3" s="163"/>
       <c r="O3" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="130" t="s">
+      <c r="P3" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="131"/>
+      <c r="Q3" s="163"/>
       <c r="R3" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="130" t="s">
+      <c r="S3" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="131"/>
+      <c r="T3" s="163"/>
       <c r="U3" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="157" t="s">
+      <c r="V3" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="W3" s="157" t="s">
+      <c r="W3" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="Y3" s="129" t="s">
+      <c r="Y3" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="Z3" s="129"/>
+      <c r="Z3" s="165"/>
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27">
@@ -2567,8 +2554,8 @@
         <v>15</v>
       </c>
       <c r="U4" s="6"/>
-      <c r="V4" s="158"/>
-      <c r="W4" s="159"/>
+      <c r="V4" s="131"/>
+      <c r="W4" s="132"/>
       <c r="Y4">
         <v>57.8</v>
       </c>
@@ -2635,8 +2622,8 @@
         <v>15</v>
       </c>
       <c r="U5" s="7"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="161"/>
+      <c r="V5" s="133"/>
+      <c r="W5" s="134"/>
       <c r="Y5">
         <v>84.3</v>
       </c>
@@ -2703,8 +2690,8 @@
         <v>15</v>
       </c>
       <c r="U6" s="6"/>
-      <c r="V6" s="158"/>
-      <c r="W6" s="159"/>
+      <c r="V6" s="131"/>
+      <c r="W6" s="132"/>
       <c r="Y6">
         <v>181</v>
       </c>
@@ -2771,8 +2758,8 @@
         <v>17</v>
       </c>
       <c r="U7" s="15"/>
-      <c r="V7" s="162"/>
-      <c r="W7" s="163"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="136"/>
       <c r="Y7">
         <v>276</v>
       </c>
@@ -2839,8 +2826,8 @@
         <v>18</v>
       </c>
       <c r="U8" s="6"/>
-      <c r="V8" s="158"/>
-      <c r="W8" s="159"/>
+      <c r="V8" s="131"/>
+      <c r="W8" s="132"/>
       <c r="Y8">
         <v>475</v>
       </c>
@@ -2907,8 +2894,8 @@
         <v>19</v>
       </c>
       <c r="U9" s="6"/>
-      <c r="V9" s="158"/>
-      <c r="W9" s="159"/>
+      <c r="V9" s="131"/>
+      <c r="W9" s="132"/>
       <c r="Y9">
         <v>864</v>
       </c>
@@ -2975,8 +2962,8 @@
         <v>20</v>
       </c>
       <c r="U10" s="6"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="159"/>
+      <c r="V10" s="131"/>
+      <c r="W10" s="132"/>
       <c r="Y10">
         <v>1.63</v>
       </c>
@@ -3043,8 +3030,8 @@
         <v>23</v>
       </c>
       <c r="U11" s="7"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="161"/>
+      <c r="V11" s="133"/>
+      <c r="W11" s="134"/>
       <c r="Y11">
         <v>3.25</v>
       </c>
@@ -3111,8 +3098,8 @@
         <v>25</v>
       </c>
       <c r="U12" s="6"/>
-      <c r="V12" s="158"/>
-      <c r="W12" s="159"/>
+      <c r="V12" s="131"/>
+      <c r="W12" s="132"/>
       <c r="Y12">
         <v>7.53</v>
       </c>
@@ -3179,8 +3166,8 @@
         <v>27</v>
       </c>
       <c r="U13" s="15"/>
-      <c r="V13" s="162"/>
-      <c r="W13" s="163"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="136"/>
       <c r="Y13">
         <v>15.1</v>
       </c>
@@ -3247,8 +3234,8 @@
         <v>30</v>
       </c>
       <c r="U14" s="6"/>
-      <c r="V14" s="158"/>
-      <c r="W14" s="159"/>
+      <c r="V14" s="131"/>
+      <c r="W14" s="132"/>
       <c r="Y14">
         <v>29.5</v>
       </c>
@@ -3315,8 +3302,8 @@
         <v>33</v>
       </c>
       <c r="U15" s="6"/>
-      <c r="V15" s="158"/>
-      <c r="W15" s="159"/>
+      <c r="V15" s="131"/>
+      <c r="W15" s="132"/>
       <c r="Y15">
         <v>65.599999999999994</v>
       </c>
@@ -3383,8 +3370,8 @@
         <v>35</v>
       </c>
       <c r="U16" s="6"/>
-      <c r="V16" s="158"/>
-      <c r="W16" s="159"/>
+      <c r="V16" s="131"/>
+      <c r="W16" s="132"/>
       <c r="Y16">
         <v>146</v>
       </c>
@@ -3453,8 +3440,8 @@
         <v>38</v>
       </c>
       <c r="U17" s="7"/>
-      <c r="V17" s="160"/>
-      <c r="W17" s="161"/>
+      <c r="V17" s="133"/>
+      <c r="W17" s="134"/>
       <c r="Y17">
         <v>323</v>
       </c>
@@ -3519,8 +3506,8 @@
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="159"/>
+      <c r="V18" s="131"/>
+      <c r="W18" s="132"/>
       <c r="Y18">
         <v>737</v>
       </c>
@@ -3585,8 +3572,8 @@
       <c r="S19" s="23"/>
       <c r="T19" s="23"/>
       <c r="U19" s="15"/>
-      <c r="V19" s="162"/>
-      <c r="W19" s="163"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="136"/>
       <c r="Y19">
         <v>1.75</v>
       </c>
@@ -3651,8 +3638,8 @@
       <c r="S20" s="22"/>
       <c r="T20" s="22"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="158"/>
-      <c r="W20" s="159"/>
+      <c r="V20" s="131"/>
+      <c r="W20" s="132"/>
       <c r="Y20">
         <v>3.95</v>
       </c>
@@ -3717,8 +3704,8 @@
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
       <c r="U21" s="6"/>
-      <c r="V21" s="158"/>
-      <c r="W21" s="159"/>
+      <c r="V21" s="131"/>
+      <c r="W21" s="132"/>
       <c r="Y21">
         <v>9.3800000000000008</v>
       </c>
@@ -3781,8 +3768,8 @@
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="158"/>
-      <c r="W22" s="159"/>
+      <c r="V22" s="131"/>
+      <c r="W22" s="132"/>
       <c r="Y22">
         <v>22.6</v>
       </c>
@@ -3846,8 +3833,8 @@
       <c r="S23" s="25"/>
       <c r="T23" s="25"/>
       <c r="U23" s="7"/>
-      <c r="V23" s="160"/>
-      <c r="W23" s="161"/>
+      <c r="V23" s="133"/>
+      <c r="W23" s="134"/>
       <c r="Y23">
         <v>57.6</v>
       </c>
@@ -3911,8 +3898,8 @@
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="158"/>
-      <c r="W24" s="159"/>
+      <c r="V24" s="131"/>
+      <c r="W24" s="132"/>
       <c r="Y24">
         <v>132</v>
       </c>
@@ -3976,8 +3963,8 @@
       <c r="S25" s="23"/>
       <c r="T25" s="23"/>
       <c r="U25" s="15"/>
-      <c r="V25" s="162"/>
-      <c r="W25" s="163"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="136"/>
       <c r="Y25">
         <v>321</v>
       </c>
@@ -4052,8 +4039,8 @@
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="159"/>
+      <c r="V26" s="131"/>
+      <c r="W26" s="132"/>
       <c r="Y26">
         <v>762</v>
       </c>
@@ -4130,8 +4117,8 @@
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="158"/>
-      <c r="W27" s="159"/>
+      <c r="V27" s="131"/>
+      <c r="W27" s="132"/>
       <c r="Y27">
         <v>1901</v>
       </c>
@@ -4208,8 +4195,8 @@
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
       <c r="U28" s="6"/>
-      <c r="V28" s="158"/>
-      <c r="W28" s="159"/>
+      <c r="V28" s="131"/>
+      <c r="W28" s="132"/>
       <c r="Y28">
         <v>4821</v>
       </c>
@@ -4286,8 +4273,8 @@
       <c r="S29" s="25"/>
       <c r="T29" s="25"/>
       <c r="U29" s="7"/>
-      <c r="V29" s="160"/>
-      <c r="W29" s="161"/>
+      <c r="V29" s="133"/>
+      <c r="W29" s="134"/>
       <c r="Y29">
         <v>11984</v>
       </c>
@@ -4360,8 +4347,8 @@
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
       <c r="U30" s="6"/>
-      <c r="V30" s="158"/>
-      <c r="W30" s="159"/>
+      <c r="V30" s="131"/>
+      <c r="W30" s="132"/>
       <c r="Y30"/>
       <c r="Z30"/>
       <c r="AC30">
@@ -4426,8 +4413,8 @@
       <c r="S31" s="23"/>
       <c r="T31" s="23"/>
       <c r="U31" s="15"/>
-      <c r="V31" s="162"/>
-      <c r="W31" s="163"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="136"/>
       <c r="Y31"/>
       <c r="Z31"/>
       <c r="AC31">
@@ -4492,8 +4479,8 @@
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
       <c r="U32" s="6"/>
-      <c r="V32" s="158"/>
-      <c r="W32" s="159"/>
+      <c r="V32" s="131"/>
+      <c r="W32" s="132"/>
       <c r="Y32"/>
       <c r="Z32"/>
       <c r="AC32">
@@ -4556,8 +4543,8 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
       <c r="U33" s="6"/>
-      <c r="V33" s="158"/>
-      <c r="W33" s="159"/>
+      <c r="V33" s="131"/>
+      <c r="W33" s="132"/>
       <c r="Y33"/>
       <c r="Z33"/>
       <c r="AC33">
@@ -4618,8 +4605,8 @@
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
       <c r="U34" s="6"/>
-      <c r="V34" s="158"/>
-      <c r="W34" s="159"/>
+      <c r="V34" s="131"/>
+      <c r="W34" s="132"/>
       <c r="Y34"/>
       <c r="Z34"/>
       <c r="AC34">
@@ -4680,8 +4667,8 @@
       <c r="S35" s="25"/>
       <c r="T35" s="25"/>
       <c r="U35" s="7"/>
-      <c r="V35" s="160"/>
-      <c r="W35" s="161"/>
+      <c r="V35" s="133"/>
+      <c r="W35" s="134"/>
       <c r="Y35"/>
       <c r="Z35"/>
       <c r="AC35">
@@ -4746,8 +4733,8 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
       <c r="U36" s="6"/>
-      <c r="V36" s="158"/>
-      <c r="W36" s="159"/>
+      <c r="V36" s="131"/>
+      <c r="W36" s="132"/>
       <c r="Y36"/>
       <c r="Z36"/>
       <c r="AC36">
@@ -4808,8 +4795,8 @@
       <c r="S37" s="23"/>
       <c r="T37" s="23"/>
       <c r="U37" s="15"/>
-      <c r="V37" s="162"/>
-      <c r="W37" s="163"/>
+      <c r="V37" s="135"/>
+      <c r="W37" s="136"/>
       <c r="Y37"/>
       <c r="Z37"/>
       <c r="AC37">
@@ -4870,8 +4857,8 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
       <c r="U38" s="6"/>
-      <c r="V38" s="158"/>
-      <c r="W38" s="159"/>
+      <c r="V38" s="131"/>
+      <c r="W38" s="132"/>
       <c r="Y38"/>
       <c r="Z38"/>
       <c r="AC38">
@@ -4934,8 +4921,8 @@
       <c r="S39" s="22"/>
       <c r="T39" s="22"/>
       <c r="U39" s="6"/>
-      <c r="V39" s="158"/>
-      <c r="W39" s="159"/>
+      <c r="V39" s="131"/>
+      <c r="W39" s="132"/>
       <c r="Y39"/>
       <c r="Z39"/>
       <c r="AC39">
@@ -4996,8 +4983,8 @@
       <c r="S40" s="22"/>
       <c r="T40" s="22"/>
       <c r="U40" s="6"/>
-      <c r="V40" s="158"/>
-      <c r="W40" s="159"/>
+      <c r="V40" s="131"/>
+      <c r="W40" s="132"/>
       <c r="Y40"/>
       <c r="Z40"/>
       <c r="AC40">
@@ -5058,8 +5045,8 @@
       <c r="S41" s="25"/>
       <c r="T41" s="25"/>
       <c r="U41" s="7"/>
-      <c r="V41" s="160"/>
-      <c r="W41" s="161"/>
+      <c r="V41" s="133"/>
+      <c r="W41" s="134"/>
       <c r="Y41"/>
       <c r="Z41"/>
       <c r="AC41">
@@ -5124,8 +5111,8 @@
       <c r="S42" s="22"/>
       <c r="T42" s="22"/>
       <c r="U42" s="6"/>
-      <c r="V42" s="158"/>
-      <c r="W42" s="159"/>
+      <c r="V42" s="131"/>
+      <c r="W42" s="132"/>
       <c r="Y42"/>
       <c r="Z42"/>
       <c r="AC42">
@@ -5186,8 +5173,8 @@
       <c r="S43" s="23"/>
       <c r="T43" s="23"/>
       <c r="U43" s="15"/>
-      <c r="V43" s="162"/>
-      <c r="W43" s="163"/>
+      <c r="V43" s="135"/>
+      <c r="W43" s="136"/>
       <c r="Y43"/>
       <c r="Z43"/>
       <c r="AC43">
@@ -5247,8 +5234,8 @@
       <c r="S44" s="22"/>
       <c r="T44" s="22"/>
       <c r="U44" s="6"/>
-      <c r="V44" s="158"/>
-      <c r="W44" s="159"/>
+      <c r="V44" s="131"/>
+      <c r="W44" s="132"/>
       <c r="Y44"/>
       <c r="Z44"/>
       <c r="AC44">
@@ -5310,8 +5297,8 @@
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
       <c r="U45" s="6"/>
-      <c r="V45" s="158"/>
-      <c r="W45" s="159"/>
+      <c r="V45" s="131"/>
+      <c r="W45" s="132"/>
       <c r="Y45"/>
       <c r="Z45"/>
       <c r="AC45" t="s">
@@ -5371,8 +5358,8 @@
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
       <c r="U46" s="6"/>
-      <c r="V46" s="158"/>
-      <c r="W46" s="159"/>
+      <c r="V46" s="131"/>
+      <c r="W46" s="132"/>
       <c r="Y46"/>
       <c r="Z46"/>
       <c r="AC46" t="s">
@@ -5434,8 +5421,8 @@
       <c r="S47" s="25"/>
       <c r="T47" s="25"/>
       <c r="U47" s="7"/>
-      <c r="V47" s="160"/>
-      <c r="W47" s="161"/>
+      <c r="V47" s="133"/>
+      <c r="W47" s="134"/>
       <c r="Y47"/>
       <c r="Z47"/>
       <c r="AC47" t="s">
@@ -5497,8 +5484,8 @@
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
       <c r="U48" s="6"/>
-      <c r="V48" s="158"/>
-      <c r="W48" s="159"/>
+      <c r="V48" s="131"/>
+      <c r="W48" s="132"/>
       <c r="Y48"/>
       <c r="Z48"/>
       <c r="AC48" t="s">
@@ -5558,8 +5545,8 @@
       <c r="S49" s="23"/>
       <c r="T49" s="23"/>
       <c r="U49" s="15"/>
-      <c r="V49" s="162"/>
-      <c r="W49" s="163"/>
+      <c r="V49" s="135"/>
+      <c r="W49" s="136"/>
       <c r="Y49"/>
       <c r="Z49"/>
       <c r="AC49" t="s">
@@ -5619,8 +5606,8 @@
       <c r="S50" s="22"/>
       <c r="T50" s="22"/>
       <c r="U50" s="6"/>
-      <c r="V50" s="158"/>
-      <c r="W50" s="159"/>
+      <c r="V50" s="131"/>
+      <c r="W50" s="132"/>
       <c r="Y50"/>
       <c r="Z50"/>
       <c r="AC50" t="s">
@@ -5682,8 +5669,8 @@
       <c r="S51" s="22"/>
       <c r="T51" s="22"/>
       <c r="U51" s="6"/>
-      <c r="V51" s="158"/>
-      <c r="W51" s="159"/>
+      <c r="V51" s="131"/>
+      <c r="W51" s="132"/>
       <c r="Y51"/>
       <c r="Z51"/>
     </row>
@@ -5728,8 +5715,8 @@
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
       <c r="U52" s="6"/>
-      <c r="V52" s="158"/>
-      <c r="W52" s="159"/>
+      <c r="V52" s="131"/>
+      <c r="W52" s="132"/>
       <c r="Y52"/>
       <c r="Z52"/>
     </row>
@@ -5772,10 +5759,10 @@
       <c r="S53" s="25"/>
       <c r="T53" s="25"/>
       <c r="U53" s="7"/>
-      <c r="V53" s="155" t="s">
+      <c r="V53" s="129" t="s">
         <v>176</v>
       </c>
-      <c r="W53" s="164" t="s">
+      <c r="W53" s="137" t="s">
         <v>177</v>
       </c>
       <c r="X53" s="10" t="s">
@@ -5813,8 +5800,8 @@
       <c r="S54" s="31"/>
       <c r="T54" s="31"/>
       <c r="U54" s="6"/>
-      <c r="V54" s="165"/>
-      <c r="W54" s="166"/>
+      <c r="V54" s="138"/>
+      <c r="W54" s="139"/>
       <c r="X54" s="10" t="s">
         <v>54</v>
       </c>
@@ -5850,8 +5837,8 @@
       <c r="S55" s="34"/>
       <c r="T55" s="34"/>
       <c r="U55" s="15"/>
-      <c r="V55" s="167"/>
-      <c r="W55" s="168"/>
+      <c r="V55" s="140"/>
+      <c r="W55" s="141"/>
       <c r="X55" s="10" t="s">
         <v>55</v>
       </c>
@@ -5887,8 +5874,8 @@
       <c r="S56" s="31"/>
       <c r="T56" s="31"/>
       <c r="U56" s="6"/>
-      <c r="V56" s="165"/>
-      <c r="W56" s="166"/>
+      <c r="V56" s="138"/>
+      <c r="W56" s="139"/>
       <c r="X56" s="10" t="s">
         <v>56</v>
       </c>
@@ -5924,8 +5911,8 @@
       <c r="S57" s="31"/>
       <c r="T57" s="31"/>
       <c r="U57" s="6"/>
-      <c r="V57" s="165"/>
-      <c r="W57" s="166"/>
+      <c r="V57" s="138"/>
+      <c r="W57" s="139"/>
       <c r="X57" s="10" t="s">
         <v>57</v>
       </c>
@@ -5961,8 +5948,8 @@
       <c r="S58" s="31"/>
       <c r="T58" s="31"/>
       <c r="U58" s="6"/>
-      <c r="V58" s="165"/>
-      <c r="W58" s="166"/>
+      <c r="V58" s="138"/>
+      <c r="W58" s="139"/>
       <c r="X58" s="10" t="s">
         <v>58</v>
       </c>
@@ -5998,8 +5985,8 @@
       <c r="S59" s="38"/>
       <c r="T59" s="38"/>
       <c r="U59" s="7"/>
-      <c r="V59" s="169"/>
-      <c r="W59" s="164"/>
+      <c r="V59" s="142"/>
+      <c r="W59" s="137"/>
       <c r="X59" s="10" t="s">
         <v>59</v>
       </c>
@@ -6035,8 +6022,8 @@
       <c r="S60" s="31"/>
       <c r="T60" s="31"/>
       <c r="U60" s="6"/>
-      <c r="V60" s="165"/>
-      <c r="W60" s="166"/>
+      <c r="V60" s="138"/>
+      <c r="W60" s="139"/>
       <c r="X60" s="10" t="s">
         <v>60</v>
       </c>
@@ -6072,8 +6059,8 @@
       <c r="S61" s="34"/>
       <c r="T61" s="34"/>
       <c r="U61" s="15"/>
-      <c r="V61" s="167"/>
-      <c r="W61" s="168"/>
+      <c r="V61" s="140"/>
+      <c r="W61" s="141"/>
       <c r="X61" s="10" t="s">
         <v>61</v>
       </c>
@@ -6109,8 +6096,8 @@
       <c r="S62" s="31"/>
       <c r="T62" s="31"/>
       <c r="U62" s="6"/>
-      <c r="V62" s="165"/>
-      <c r="W62" s="166"/>
+      <c r="V62" s="138"/>
+      <c r="W62" s="139"/>
       <c r="X62" s="10" t="s">
         <v>62</v>
       </c>
@@ -6146,8 +6133,8 @@
       <c r="S63" s="31"/>
       <c r="T63" s="31"/>
       <c r="U63" s="6"/>
-      <c r="V63" s="165"/>
-      <c r="W63" s="166"/>
+      <c r="V63" s="138"/>
+      <c r="W63" s="139"/>
       <c r="X63" s="10" t="s">
         <v>63</v>
       </c>
@@ -6183,8 +6170,8 @@
       <c r="S64" s="34"/>
       <c r="T64" s="34"/>
       <c r="U64" s="15"/>
-      <c r="V64" s="167"/>
-      <c r="W64" s="168"/>
+      <c r="V64" s="140"/>
+      <c r="W64" s="141"/>
       <c r="X64" s="10" t="s">
         <v>64</v>
       </c>
@@ -6195,6 +6182,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H2:I2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="V2:W2"/>
@@ -6211,7 +6199,6 @@
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
@@ -6224,7 +6211,7 @@
   <dimension ref="A1:V64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15"/>
@@ -6244,27 +6231,27 @@
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
-      <c r="D2" s="134" t="s">
+      <c r="D2" s="160" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="191"/>
-      <c r="F2" s="132" t="s">
+      <c r="E2" s="168"/>
+      <c r="F2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="132"/>
-      <c r="H2" s="131" t="s">
+      <c r="G2" s="166"/>
+      <c r="H2" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="130"/>
-      <c r="J2" s="132" t="s">
+      <c r="I2" s="162"/>
+      <c r="J2" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="132"/>
-      <c r="M2" s="129" t="s">
+      <c r="K2" s="166"/>
+      <c r="M2" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
+      <c r="N2" s="165"/>
+      <c r="O2" s="165"/>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="4" t="s">
@@ -6276,26 +6263,26 @@
       <c r="C3" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="133"/>
-      <c r="F3" s="130" t="s">
+      <c r="E3" s="167"/>
+      <c r="F3" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="133" t="s">
+      <c r="G3" s="163"/>
+      <c r="H3" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="133"/>
-      <c r="J3" s="130" t="s">
+      <c r="I3" s="167"/>
+      <c r="J3" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="131"/>
-      <c r="M3" s="129" t="s">
+      <c r="K3" s="163"/>
+      <c r="M3" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="129"/>
+      <c r="N3" s="165"/>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
@@ -6318,11 +6305,11 @@
       <c r="H4" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="188"/>
+      <c r="I4" s="157"/>
       <c r="J4" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="185"/>
+      <c r="K4" s="154"/>
       <c r="M4">
         <v>57.8</v>
       </c>
@@ -6335,7 +6322,7 @@
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="192">
+      <c r="A5" s="188">
         <v>0</v>
       </c>
       <c r="B5" s="5">
@@ -6356,11 +6343,11 @@
       <c r="H5" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="189"/>
+      <c r="I5" s="158"/>
       <c r="J5" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="186"/>
+      <c r="K5" s="155"/>
       <c r="M5">
         <v>84.3</v>
       </c>
@@ -6373,7 +6360,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="193">
+      <c r="A6" s="189">
         <v>0</v>
       </c>
       <c r="B6" s="11">
@@ -6394,11 +6381,11 @@
       <c r="H6" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="188"/>
+      <c r="I6" s="157"/>
       <c r="J6" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="185"/>
+      <c r="K6" s="154"/>
       <c r="M6">
         <v>181</v>
       </c>
@@ -6411,7 +6398,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="194">
+      <c r="A7" s="43">
         <v>0</v>
       </c>
       <c r="B7" s="14">
@@ -6432,11 +6419,11 @@
       <c r="H7" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="190"/>
+      <c r="I7" s="159"/>
       <c r="J7" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="187"/>
+      <c r="K7" s="156"/>
       <c r="M7">
         <v>276</v>
       </c>
@@ -6449,7 +6436,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="193">
+      <c r="A8" s="189">
         <v>1</v>
       </c>
       <c r="B8" s="11">
@@ -6470,11 +6457,11 @@
       <c r="H8" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="189"/>
+      <c r="I8" s="158"/>
       <c r="J8" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="185"/>
+      <c r="K8" s="154"/>
       <c r="M8">
         <v>475</v>
       </c>
@@ -6487,7 +6474,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="193">
+      <c r="A9" s="189">
         <v>1</v>
       </c>
       <c r="B9" s="11">
@@ -6508,11 +6495,11 @@
       <c r="H9" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="188"/>
+      <c r="I9" s="157"/>
       <c r="J9" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="185"/>
+      <c r="K9" s="154"/>
       <c r="M9">
         <v>864</v>
       </c>
@@ -6525,7 +6512,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="193">
+      <c r="A10" s="189">
         <v>1</v>
       </c>
       <c r="B10" s="11">
@@ -6546,11 +6533,11 @@
       <c r="H10" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="190"/>
+      <c r="I10" s="159"/>
       <c r="J10" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="185"/>
+      <c r="K10" s="154"/>
       <c r="M10">
         <v>1.63</v>
       </c>
@@ -6563,7 +6550,7 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="192">
+      <c r="A11" s="188">
         <v>2</v>
       </c>
       <c r="B11" s="5">
@@ -6584,11 +6571,11 @@
       <c r="H11" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="189"/>
+      <c r="I11" s="158"/>
       <c r="J11" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="186"/>
+      <c r="K11" s="155"/>
       <c r="M11">
         <v>3.25</v>
       </c>
@@ -6601,7 +6588,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="193">
+      <c r="A12" s="189">
         <v>2</v>
       </c>
       <c r="B12" s="11">
@@ -6622,11 +6609,11 @@
       <c r="H12" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="188"/>
+      <c r="I12" s="157"/>
       <c r="J12" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="185"/>
+      <c r="K12" s="154"/>
       <c r="M12">
         <v>7.53</v>
       </c>
@@ -6639,7 +6626,7 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="194">
+      <c r="A13" s="43">
         <v>2</v>
       </c>
       <c r="B13" s="14">
@@ -6660,11 +6647,11 @@
       <c r="H13" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="190"/>
+      <c r="I13" s="159"/>
       <c r="J13" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K13" s="185"/>
+      <c r="K13" s="154"/>
       <c r="M13">
         <v>15.1</v>
       </c>
@@ -6677,7 +6664,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="195">
+      <c r="A14" s="44">
         <v>3</v>
       </c>
       <c r="B14" s="11">
@@ -6698,11 +6685,11 @@
       <c r="H14" s="115" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="189"/>
+      <c r="I14" s="158"/>
       <c r="J14" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="186"/>
+      <c r="K14" s="155"/>
       <c r="M14">
         <v>29.5</v>
       </c>
@@ -6715,7 +6702,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="195">
+      <c r="A15" s="44">
         <v>3</v>
       </c>
       <c r="B15" s="11">
@@ -6736,11 +6723,11 @@
       <c r="H15" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="188"/>
+      <c r="I15" s="157"/>
       <c r="J15" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K15" s="185"/>
+      <c r="K15" s="154"/>
       <c r="M15">
         <v>65.599999999999994</v>
       </c>
@@ -6753,7 +6740,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="196">
+      <c r="A16" s="45">
         <v>3</v>
       </c>
       <c r="B16" s="14">
@@ -6774,11 +6761,11 @@
       <c r="H16" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="188"/>
+      <c r="I16" s="157"/>
       <c r="J16" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="185"/>
+      <c r="K16" s="154"/>
       <c r="M16">
         <v>146</v>
       </c>
@@ -6791,7 +6778,7 @@
       </c>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="197">
+      <c r="A17" s="64">
         <v>4</v>
       </c>
       <c r="B17" s="5">
@@ -6812,11 +6799,11 @@
       <c r="H17" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="I17" s="189"/>
+      <c r="I17" s="158"/>
       <c r="J17" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="K17" s="186"/>
+      <c r="K17" s="155"/>
       <c r="M17">
         <v>323</v>
       </c>
@@ -6829,7 +6816,7 @@
       </c>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="195">
+      <c r="A18" s="44">
         <v>4</v>
       </c>
       <c r="B18" s="11">
@@ -6850,11 +6837,11 @@
       <c r="H18" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="I18" s="188"/>
+      <c r="I18" s="157"/>
       <c r="J18" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="185"/>
+      <c r="K18" s="154"/>
       <c r="M18">
         <v>737</v>
       </c>
@@ -6867,7 +6854,7 @@
       </c>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="196">
+      <c r="A19" s="45">
         <v>4</v>
       </c>
       <c r="B19" s="14">
@@ -6888,7 +6875,7 @@
       <c r="H19" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="I19" s="190"/>
+      <c r="I19" s="159"/>
       <c r="J19" s="104" t="s">
         <v>13</v>
       </c>
@@ -6907,7 +6894,7 @@
       </c>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="197">
+      <c r="A20" s="64">
         <v>5</v>
       </c>
       <c r="B20" s="11">
@@ -6928,7 +6915,7 @@
       <c r="H20" s="115" t="s">
         <v>187</v>
       </c>
-      <c r="I20" s="188"/>
+      <c r="I20" s="157"/>
       <c r="J20" s="113" t="s">
         <v>13</v>
       </c>
@@ -6947,7 +6934,7 @@
       </c>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="195">
+      <c r="A21" s="44">
         <v>5</v>
       </c>
       <c r="B21" s="11">
@@ -6968,7 +6955,7 @@
       <c r="H21" s="116" t="s">
         <v>187</v>
       </c>
-      <c r="I21" s="188"/>
+      <c r="I21" s="157"/>
       <c r="J21" s="104" t="s">
         <v>13</v>
       </c>
@@ -6989,7 +6976,7 @@
       <c r="V21" s="10"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="196">
+      <c r="A22" s="45">
         <v>5</v>
       </c>
       <c r="B22" s="14">
@@ -7140,10 +7127,12 @@
         <v>187</v>
       </c>
       <c r="I25" s="117"/>
-      <c r="J25" s="183" t="s">
+      <c r="J25" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="K25" s="182"/>
+      <c r="K25" s="68" t="s">
+        <v>191</v>
+      </c>
       <c r="M25">
         <v>321</v>
       </c>
@@ -7181,10 +7170,12 @@
         <v>187</v>
       </c>
       <c r="I26" s="116"/>
-      <c r="J26" s="184" t="s">
+      <c r="J26" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="179"/>
+      <c r="K26" s="67" t="s">
+        <v>190</v>
+      </c>
       <c r="M26">
         <v>762</v>
       </c>
@@ -7222,10 +7213,12 @@
         <v>187</v>
       </c>
       <c r="I27" s="116"/>
-      <c r="J27" s="184" t="s">
+      <c r="J27" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="K27" s="179"/>
+      <c r="K27" s="67" t="s">
+        <v>189</v>
+      </c>
       <c r="M27">
         <v>1901</v>
       </c>
@@ -7263,10 +7256,12 @@
         <v>187</v>
       </c>
       <c r="I28" s="116"/>
-      <c r="J28" s="184" t="s">
+      <c r="J28" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="179"/>
+      <c r="K28" s="67" t="s">
+        <v>189</v>
+      </c>
       <c r="M28">
         <v>4821</v>
       </c>
@@ -7304,10 +7299,12 @@
         <v>187</v>
       </c>
       <c r="I29" s="115"/>
-      <c r="J29" s="181" t="s">
+      <c r="J29" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="K29" s="180"/>
+      <c r="K29" s="66" t="s">
+        <v>188</v>
+      </c>
       <c r="M29">
         <v>11984</v>
       </c>
@@ -7345,8 +7342,12 @@
         <v>187</v>
       </c>
       <c r="I30" s="116"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="179"/>
+      <c r="J30" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K30" s="67" t="s">
+        <v>188</v>
+      </c>
       <c r="M30"/>
       <c r="N30"/>
       <c r="T30" s="42"/>
@@ -7376,8 +7377,12 @@
         <v>187</v>
       </c>
       <c r="I31" s="116"/>
-      <c r="J31" s="183"/>
-      <c r="K31" s="182"/>
+      <c r="J31" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="K31" s="68" t="s">
+        <v>192</v>
+      </c>
       <c r="M31"/>
       <c r="N31"/>
       <c r="T31" s="42"/>
@@ -7395,8 +7400,8 @@
       <c r="C32" s="5">
         <v>28</v>
       </c>
-      <c r="D32" s="181"/>
-      <c r="E32" s="177"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="150"/>
       <c r="F32" s="113" t="s">
         <v>187</v>
       </c>
@@ -7405,8 +7410,12 @@
         <v>187</v>
       </c>
       <c r="I32" s="115"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="179"/>
+      <c r="J32" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" s="67" t="s">
+        <v>193</v>
+      </c>
       <c r="M32"/>
       <c r="N32"/>
       <c r="T32" s="42"/>
@@ -7424,8 +7433,8 @@
       <c r="C33" s="11">
         <v>29</v>
       </c>
-      <c r="D33" s="184"/>
-      <c r="E33" s="176"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="149"/>
       <c r="F33" s="104" t="s">
         <v>187</v>
       </c>
@@ -7434,8 +7443,10 @@
         <v>187</v>
       </c>
       <c r="I33" s="116"/>
-      <c r="J33" s="184"/>
-      <c r="K33" s="179"/>
+      <c r="J33" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K33" s="67"/>
       <c r="M33"/>
       <c r="N33"/>
       <c r="T33" s="42"/>
@@ -7453,8 +7464,8 @@
       <c r="C34" s="14">
         <v>30</v>
       </c>
-      <c r="D34" s="184"/>
-      <c r="E34" s="176"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="149"/>
       <c r="F34" s="114" t="s">
         <v>187</v>
       </c>
@@ -7463,8 +7474,12 @@
         <v>187</v>
       </c>
       <c r="I34" s="117"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="179"/>
+      <c r="J34" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K34" s="67" t="s">
+        <v>194</v>
+      </c>
       <c r="M34"/>
       <c r="N34"/>
       <c r="T34" s="42"/>
@@ -7482,8 +7497,8 @@
       <c r="C35" s="5">
         <v>31</v>
       </c>
-      <c r="D35" s="181"/>
-      <c r="E35" s="177"/>
+      <c r="D35" s="152"/>
+      <c r="E35" s="150"/>
       <c r="F35" s="104" t="s">
         <v>187</v>
       </c>
@@ -7492,8 +7507,12 @@
         <v>187</v>
       </c>
       <c r="I35" s="116"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="180"/>
+      <c r="J35" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35" s="66" t="s">
+        <v>195</v>
+      </c>
       <c r="M35"/>
       <c r="N35"/>
       <c r="T35" s="42"/>
@@ -7511,8 +7530,8 @@
       <c r="C36" s="11">
         <v>32</v>
       </c>
-      <c r="D36" s="184"/>
-      <c r="E36" s="176"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="149"/>
       <c r="F36" s="104" t="s">
         <v>187</v>
       </c>
@@ -7521,8 +7540,10 @@
         <v>187</v>
       </c>
       <c r="I36" s="116"/>
-      <c r="J36" s="184"/>
-      <c r="K36" s="179"/>
+      <c r="J36" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K36" s="67"/>
       <c r="M36"/>
       <c r="N36"/>
       <c r="T36" s="42"/>
@@ -7540,8 +7561,8 @@
       <c r="C37" s="14">
         <v>33</v>
       </c>
-      <c r="D37" s="184"/>
-      <c r="E37" s="178"/>
+      <c r="D37" s="153"/>
+      <c r="E37" s="151"/>
       <c r="F37" s="104" t="s">
         <v>187</v>
       </c>
@@ -7550,8 +7571,10 @@
         <v>187</v>
       </c>
       <c r="I37" s="116"/>
-      <c r="J37" s="183"/>
-      <c r="K37" s="182"/>
+      <c r="J37" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="K37" s="68"/>
       <c r="M37"/>
       <c r="N37"/>
       <c r="T37" s="42"/>
@@ -7569,8 +7592,8 @@
       <c r="C38" s="5">
         <v>34</v>
       </c>
-      <c r="D38" s="181"/>
-      <c r="E38" s="176"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="149"/>
       <c r="F38" s="113" t="s">
         <v>187</v>
       </c>
@@ -7579,8 +7602,10 @@
         <v>187</v>
       </c>
       <c r="I38" s="115"/>
-      <c r="J38" s="184"/>
-      <c r="K38" s="179"/>
+      <c r="J38" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K38" s="67"/>
       <c r="M38"/>
       <c r="N38"/>
       <c r="T38" s="42"/>
@@ -7598,8 +7623,8 @@
       <c r="C39" s="11">
         <v>35</v>
       </c>
-      <c r="D39" s="184"/>
-      <c r="E39" s="176"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="149"/>
       <c r="F39" s="104" t="s">
         <v>187</v>
       </c>
@@ -7608,8 +7633,10 @@
         <v>187</v>
       </c>
       <c r="I39" s="116"/>
-      <c r="J39" s="184"/>
-      <c r="K39" s="179"/>
+      <c r="J39" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K39" s="67"/>
       <c r="M39"/>
       <c r="N39"/>
       <c r="T39" s="42"/>
@@ -7627,8 +7654,8 @@
       <c r="C40" s="14">
         <v>36</v>
       </c>
-      <c r="D40" s="184"/>
-      <c r="E40" s="176"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="149"/>
       <c r="F40" s="104" t="s">
         <v>187</v>
       </c>
@@ -7637,8 +7664,10 @@
         <v>187</v>
       </c>
       <c r="I40" s="116"/>
-      <c r="J40" s="184"/>
-      <c r="K40" s="179"/>
+      <c r="J40" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K40" s="67"/>
       <c r="M40"/>
       <c r="N40"/>
       <c r="T40" s="42"/>
@@ -7656,8 +7685,8 @@
       <c r="C41" s="5">
         <v>37</v>
       </c>
-      <c r="D41" s="181"/>
-      <c r="E41" s="177"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="150"/>
       <c r="F41" s="113" t="s">
         <v>187</v>
       </c>
@@ -7666,8 +7695,10 @@
         <v>187</v>
       </c>
       <c r="I41" s="115"/>
-      <c r="J41" s="181"/>
-      <c r="K41" s="180"/>
+      <c r="J41" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41" s="66"/>
       <c r="M41"/>
       <c r="N41"/>
       <c r="T41" s="42"/>
@@ -7685,8 +7716,8 @@
       <c r="C42" s="11">
         <v>38</v>
       </c>
-      <c r="D42" s="184"/>
-      <c r="E42" s="176"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="149"/>
       <c r="F42" s="104" t="s">
         <v>187</v>
       </c>
@@ -7695,8 +7726,10 @@
         <v>187</v>
       </c>
       <c r="I42" s="116"/>
-      <c r="J42" s="184"/>
-      <c r="K42" s="179"/>
+      <c r="J42" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K42" s="67"/>
       <c r="M42"/>
       <c r="N42"/>
       <c r="T42" s="42"/>
@@ -7714,8 +7747,8 @@
       <c r="C43" s="14">
         <v>39</v>
       </c>
-      <c r="D43" s="184"/>
-      <c r="E43" s="178"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="151"/>
       <c r="F43" s="114" t="s">
         <v>187</v>
       </c>
@@ -7724,8 +7757,10 @@
         <v>187</v>
       </c>
       <c r="I43" s="117"/>
-      <c r="J43" s="183"/>
-      <c r="K43" s="182"/>
+      <c r="J43" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43" s="68"/>
       <c r="M43"/>
       <c r="N43"/>
       <c r="T43" s="42"/>
@@ -7742,8 +7777,8 @@
       <c r="C44" s="5">
         <v>40</v>
       </c>
-      <c r="D44" s="181"/>
-      <c r="E44" s="176"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="149"/>
       <c r="F44" s="104" t="s">
         <v>187</v>
       </c>
@@ -7752,8 +7787,12 @@
         <v>187</v>
       </c>
       <c r="I44" s="116"/>
-      <c r="J44" s="184"/>
-      <c r="K44" s="179"/>
+      <c r="J44" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K44" s="67" t="s">
+        <v>75</v>
+      </c>
       <c r="M44"/>
       <c r="N44"/>
       <c r="T44" s="42"/>
@@ -7770,8 +7809,8 @@
       <c r="C45" s="11">
         <v>41</v>
       </c>
-      <c r="D45" s="184"/>
-      <c r="E45" s="176"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="149"/>
       <c r="F45" s="104" t="s">
         <v>187</v>
       </c>
@@ -7780,8 +7819,10 @@
         <v>187</v>
       </c>
       <c r="I45" s="116"/>
-      <c r="J45" s="184"/>
-      <c r="K45" s="179"/>
+      <c r="J45" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K45" s="67"/>
       <c r="M45"/>
       <c r="N45"/>
       <c r="T45" s="42"/>
@@ -7798,8 +7839,8 @@
       <c r="C46" s="14">
         <v>42</v>
       </c>
-      <c r="D46" s="184"/>
-      <c r="E46" s="176"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="149"/>
       <c r="F46" s="104" t="s">
         <v>187</v>
       </c>
@@ -7808,8 +7849,10 @@
         <v>187</v>
       </c>
       <c r="I46" s="116"/>
-      <c r="J46" s="184"/>
-      <c r="K46" s="179"/>
+      <c r="J46" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K46" s="67"/>
       <c r="M46"/>
       <c r="N46"/>
       <c r="T46" s="42"/>
@@ -7826,8 +7869,8 @@
       <c r="C47" s="5">
         <v>43</v>
       </c>
-      <c r="D47" s="181"/>
-      <c r="E47" s="177"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="150"/>
       <c r="F47" s="113" t="s">
         <v>187</v>
       </c>
@@ -7836,8 +7879,10 @@
         <v>187</v>
       </c>
       <c r="I47" s="115"/>
-      <c r="J47" s="181"/>
-      <c r="K47" s="180"/>
+      <c r="J47" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="K47" s="66"/>
       <c r="M47"/>
       <c r="N47"/>
       <c r="T47" s="42"/>
@@ -7854,8 +7899,8 @@
       <c r="C48" s="11">
         <v>44</v>
       </c>
-      <c r="D48" s="184"/>
-      <c r="E48" s="176"/>
+      <c r="D48" s="153"/>
+      <c r="E48" s="149"/>
       <c r="F48" s="104" t="s">
         <v>187</v>
       </c>
@@ -7864,8 +7909,10 @@
         <v>187</v>
       </c>
       <c r="I48" s="116"/>
-      <c r="J48" s="184"/>
-      <c r="K48" s="179"/>
+      <c r="J48" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K48" s="67"/>
       <c r="M48"/>
       <c r="N48"/>
       <c r="T48" s="42"/>
@@ -7882,8 +7929,8 @@
       <c r="C49" s="14">
         <v>45</v>
       </c>
-      <c r="D49" s="184"/>
-      <c r="E49" s="178"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="151"/>
       <c r="F49" s="104" t="s">
         <v>187</v>
       </c>
@@ -7892,8 +7939,10 @@
         <v>187</v>
       </c>
       <c r="I49" s="116"/>
-      <c r="J49" s="183"/>
-      <c r="K49" s="182"/>
+      <c r="J49" s="114" t="s">
+        <v>68</v>
+      </c>
+      <c r="K49" s="68"/>
       <c r="M49"/>
       <c r="N49"/>
       <c r="T49" s="42"/>
@@ -7910,8 +7959,8 @@
       <c r="C50" s="5">
         <v>46</v>
       </c>
-      <c r="D50" s="181"/>
-      <c r="E50" s="176"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="149"/>
       <c r="F50" s="113" t="s">
         <v>187</v>
       </c>
@@ -7920,8 +7969,10 @@
         <v>187</v>
       </c>
       <c r="I50" s="115"/>
-      <c r="J50" s="184"/>
-      <c r="K50" s="179"/>
+      <c r="J50" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50" s="67"/>
       <c r="M50"/>
       <c r="N50"/>
     </row>
@@ -7936,8 +7987,8 @@
       <c r="C51" s="11">
         <v>47</v>
       </c>
-      <c r="D51" s="184"/>
-      <c r="E51" s="176"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="149"/>
       <c r="F51" s="104" t="s">
         <v>187</v>
       </c>
@@ -7946,8 +7997,10 @@
         <v>187</v>
       </c>
       <c r="I51" s="116"/>
-      <c r="J51" s="184"/>
-      <c r="K51" s="179"/>
+      <c r="J51" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K51" s="67"/>
       <c r="M51"/>
       <c r="N51"/>
     </row>
@@ -7962,8 +8015,8 @@
       <c r="C52" s="14">
         <v>48</v>
       </c>
-      <c r="D52" s="184"/>
-      <c r="E52" s="176"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="149"/>
       <c r="F52" s="114" t="s">
         <v>187</v>
       </c>
@@ -7972,8 +8025,10 @@
         <v>187</v>
       </c>
       <c r="I52" s="117"/>
-      <c r="J52" s="184"/>
-      <c r="K52" s="179"/>
+      <c r="J52" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K52" s="67"/>
       <c r="M52"/>
       <c r="N52"/>
     </row>
@@ -7986,8 +8041,8 @@
       <c r="C53" s="29">
         <v>49</v>
       </c>
-      <c r="D53" s="181"/>
-      <c r="E53" s="177"/>
+      <c r="D53" s="152"/>
+      <c r="E53" s="150"/>
       <c r="F53" s="104" t="s">
         <v>187</v>
       </c>
@@ -7996,8 +8051,10 @@
         <v>187</v>
       </c>
       <c r="I53" s="116"/>
-      <c r="J53" s="181"/>
-      <c r="K53" s="180"/>
+      <c r="J53" s="113" t="s">
+        <v>68</v>
+      </c>
+      <c r="K53" s="66"/>
       <c r="L53" s="10" t="s">
         <v>53</v>
       </c>
@@ -8015,13 +8072,13 @@
       <c r="C54" s="28">
         <v>50</v>
       </c>
-      <c r="D54" s="172"/>
+      <c r="D54" s="145"/>
       <c r="E54" s="126"/>
-      <c r="F54" s="172"/>
+      <c r="F54" s="145"/>
       <c r="G54" s="91"/>
       <c r="H54" s="126"/>
       <c r="I54" s="126"/>
-      <c r="J54" s="172"/>
+      <c r="J54" s="145"/>
       <c r="K54" s="91"/>
       <c r="L54" s="10" t="s">
         <v>54</v>
@@ -8040,13 +8097,13 @@
       <c r="C55" s="33">
         <v>51</v>
       </c>
-      <c r="D55" s="173"/>
+      <c r="D55" s="146"/>
       <c r="E55" s="128"/>
-      <c r="F55" s="173"/>
+      <c r="F55" s="146"/>
       <c r="G55" s="93"/>
-      <c r="H55" s="175"/>
-      <c r="I55" s="175"/>
-      <c r="J55" s="173"/>
+      <c r="H55" s="148"/>
+      <c r="I55" s="148"/>
+      <c r="J55" s="146"/>
       <c r="K55" s="93"/>
       <c r="L55" s="10" t="s">
         <v>55</v>
@@ -8065,13 +8122,13 @@
       <c r="C56" s="29">
         <v>52</v>
       </c>
-      <c r="D56" s="172"/>
+      <c r="D56" s="145"/>
       <c r="E56" s="126"/>
-      <c r="F56" s="172"/>
+      <c r="F56" s="145"/>
       <c r="G56" s="91"/>
-      <c r="H56" s="174"/>
-      <c r="I56" s="174"/>
-      <c r="J56" s="172"/>
+      <c r="H56" s="147"/>
+      <c r="I56" s="147"/>
+      <c r="J56" s="145"/>
       <c r="K56" s="91"/>
       <c r="L56" s="10" t="s">
         <v>56</v>
@@ -8090,13 +8147,13 @@
       <c r="C57" s="28">
         <v>53</v>
       </c>
-      <c r="D57" s="172"/>
+      <c r="D57" s="145"/>
       <c r="E57" s="126"/>
-      <c r="F57" s="172"/>
+      <c r="F57" s="145"/>
       <c r="G57" s="91"/>
       <c r="H57" s="126"/>
       <c r="I57" s="126"/>
-      <c r="J57" s="172"/>
+      <c r="J57" s="145"/>
       <c r="K57" s="91"/>
       <c r="L57" s="10" t="s">
         <v>57</v>
@@ -8115,13 +8172,13 @@
       <c r="C58" s="33">
         <v>54</v>
       </c>
-      <c r="D58" s="172"/>
+      <c r="D58" s="145"/>
       <c r="E58" s="126"/>
-      <c r="F58" s="172"/>
+      <c r="F58" s="145"/>
       <c r="G58" s="91"/>
       <c r="H58" s="128"/>
       <c r="I58" s="128"/>
-      <c r="J58" s="172"/>
+      <c r="J58" s="145"/>
       <c r="K58" s="91"/>
       <c r="L58" s="10" t="s">
         <v>58</v>
@@ -8140,13 +8197,13 @@
       <c r="C59" s="29">
         <v>55</v>
       </c>
-      <c r="D59" s="171"/>
+      <c r="D59" s="144"/>
       <c r="E59" s="127"/>
-      <c r="F59" s="171"/>
+      <c r="F59" s="144"/>
       <c r="G59" s="92"/>
       <c r="H59" s="127"/>
       <c r="I59" s="127"/>
-      <c r="J59" s="171"/>
+      <c r="J59" s="144"/>
       <c r="K59" s="92"/>
       <c r="L59" s="10" t="s">
         <v>59</v>
@@ -8165,13 +8222,13 @@
       <c r="C60" s="28">
         <v>56</v>
       </c>
-      <c r="D60" s="172"/>
+      <c r="D60" s="145"/>
       <c r="E60" s="126"/>
-      <c r="F60" s="172"/>
+      <c r="F60" s="145"/>
       <c r="G60" s="91"/>
       <c r="H60" s="126"/>
       <c r="I60" s="126"/>
-      <c r="J60" s="172"/>
+      <c r="J60" s="145"/>
       <c r="K60" s="91"/>
       <c r="L60" s="10" t="s">
         <v>60</v>
@@ -8190,13 +8247,13 @@
       <c r="C61" s="33">
         <v>57</v>
       </c>
-      <c r="D61" s="173"/>
+      <c r="D61" s="146"/>
       <c r="E61" s="128"/>
-      <c r="F61" s="173"/>
+      <c r="F61" s="146"/>
       <c r="G61" s="93"/>
       <c r="H61" s="128"/>
       <c r="I61" s="128"/>
-      <c r="J61" s="173"/>
+      <c r="J61" s="146"/>
       <c r="K61" s="93"/>
       <c r="L61" s="10" t="s">
         <v>61</v>
@@ -8215,13 +8272,13 @@
       <c r="C62" s="29">
         <v>58</v>
       </c>
-      <c r="D62" s="172"/>
+      <c r="D62" s="145"/>
       <c r="E62" s="126"/>
-      <c r="F62" s="172"/>
+      <c r="F62" s="145"/>
       <c r="G62" s="91"/>
       <c r="H62" s="126"/>
       <c r="I62" s="126"/>
-      <c r="J62" s="172"/>
+      <c r="J62" s="145"/>
       <c r="K62" s="91"/>
       <c r="L62" s="10" t="s">
         <v>62</v>
@@ -8240,13 +8297,13 @@
       <c r="C63" s="28">
         <v>59</v>
       </c>
-      <c r="D63" s="172"/>
+      <c r="D63" s="145"/>
       <c r="E63" s="126"/>
-      <c r="F63" s="172"/>
+      <c r="F63" s="145"/>
       <c r="G63" s="91"/>
       <c r="H63" s="126"/>
       <c r="I63" s="126"/>
-      <c r="J63" s="172"/>
+      <c r="J63" s="145"/>
       <c r="K63" s="91"/>
       <c r="L63" s="10" t="s">
         <v>63</v>
@@ -8265,13 +8322,13 @@
       <c r="C64" s="33">
         <v>60</v>
       </c>
-      <c r="D64" s="173"/>
+      <c r="D64" s="146"/>
       <c r="E64" s="128"/>
-      <c r="F64" s="173"/>
+      <c r="F64" s="146"/>
       <c r="G64" s="93"/>
       <c r="H64" s="128"/>
       <c r="I64" s="128"/>
-      <c r="J64" s="173"/>
+      <c r="J64" s="146"/>
       <c r="K64" s="93"/>
       <c r="L64" s="10" t="s">
         <v>64</v>
@@ -8321,79 +8378,79 @@
       <c r="B1" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="151">
+      <c r="C1" s="186">
         <v>0</v>
       </c>
-      <c r="D1" s="146">
+      <c r="D1" s="171">
         <v>1</v>
       </c>
-      <c r="E1" s="142">
+      <c r="E1" s="173">
         <v>2</v>
       </c>
-      <c r="F1" s="144">
+      <c r="F1" s="183">
         <v>3</v>
       </c>
-      <c r="G1" s="146">
+      <c r="G1" s="171">
         <v>4</v>
       </c>
-      <c r="H1" s="142">
+      <c r="H1" s="173">
         <v>5</v>
       </c>
-      <c r="I1" s="144">
+      <c r="I1" s="183">
         <v>6</v>
       </c>
-      <c r="J1" s="146">
+      <c r="J1" s="171">
         <v>7</v>
       </c>
-      <c r="K1" s="142">
+      <c r="K1" s="173">
         <v>8</v>
       </c>
-      <c r="L1" s="144">
+      <c r="L1" s="183">
         <v>9</v>
       </c>
-      <c r="M1" s="146">
+      <c r="M1" s="171">
         <v>10</v>
       </c>
-      <c r="N1" s="142">
+      <c r="N1" s="173">
         <v>11</v>
       </c>
-      <c r="O1" s="144">
+      <c r="O1" s="183">
         <v>12</v>
       </c>
-      <c r="P1" s="146">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="142">
+      <c r="P1" s="171">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="173">
         <v>14</v>
       </c>
-      <c r="R1" s="144">
+      <c r="R1" s="183">
         <v>15</v>
       </c>
-      <c r="S1" s="146">
+      <c r="S1" s="171">
         <v>16</v>
       </c>
-      <c r="T1" s="142">
+      <c r="T1" s="173">
         <v>17</v>
       </c>
-      <c r="U1" s="144">
+      <c r="U1" s="183">
         <v>18</v>
       </c>
-      <c r="V1" s="146">
+      <c r="V1" s="171">
         <v>19</v>
       </c>
-      <c r="W1" s="142">
+      <c r="W1" s="173">
         <v>20</v>
       </c>
-      <c r="X1" s="144">
+      <c r="X1" s="183">
         <v>21</v>
       </c>
-      <c r="Y1" s="146">
+      <c r="Y1" s="171">
         <v>22</v>
       </c>
-      <c r="Z1" s="142">
+      <c r="Z1" s="173">
         <v>23</v>
       </c>
-      <c r="AA1" s="144">
+      <c r="AA1" s="183">
         <v>24</v>
       </c>
       <c r="AC1">
@@ -8409,31 +8466,31 @@
         <v>9</v>
       </c>
       <c r="B2" s="50"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="145"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="145"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="145"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="143"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="148"/>
-      <c r="W2" s="150"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="149"/>
+      <c r="C2" s="187"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="177"/>
+      <c r="K2" s="182"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="177"/>
+      <c r="N2" s="182"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="177"/>
+      <c r="Q2" s="182"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="177"/>
+      <c r="T2" s="182"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="172"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="185"/>
+      <c r="Y2" s="172"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="185"/>
       <c r="AC2">
         <v>5</v>
       </c>
@@ -8443,10 +8500,10 @@
       </c>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="153">
+      <c r="A3" s="180">
         <v>0</v>
       </c>
-      <c r="B3" s="154"/>
+      <c r="B3" s="181"/>
       <c r="D3" s="12"/>
       <c r="E3" s="46"/>
       <c r="F3" s="13"/>
@@ -8474,10 +8531,10 @@
       </c>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="138">
+      <c r="A4" s="178">
         <v>1</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="179"/>
       <c r="C4" s="52"/>
       <c r="D4" s="8"/>
       <c r="E4" s="52"/>
@@ -8512,10 +8569,10 @@
       </c>
     </row>
     <row r="5" spans="1:30">
-      <c r="A5" s="136">
+      <c r="A5" s="175">
         <v>2</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="176"/>
       <c r="C5" s="46"/>
       <c r="D5" s="12"/>
       <c r="E5" s="46"/>
@@ -8550,10 +8607,10 @@
       </c>
     </row>
     <row r="6" spans="1:30">
-      <c r="A6" s="140">
+      <c r="A6" s="169">
         <v>3</v>
       </c>
-      <c r="B6" s="141"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="51"/>
       <c r="D6" s="16"/>
       <c r="E6" s="51"/>
@@ -8588,10 +8645,10 @@
       </c>
     </row>
     <row r="7" spans="1:30">
-      <c r="A7" s="138">
+      <c r="A7" s="178">
         <v>4</v>
       </c>
-      <c r="B7" s="139"/>
+      <c r="B7" s="179"/>
       <c r="D7" s="12"/>
       <c r="E7" s="46"/>
       <c r="F7" s="13"/>
@@ -8619,10 +8676,10 @@
       </c>
     </row>
     <row r="8" spans="1:30">
-      <c r="A8" s="136">
+      <c r="A8" s="175">
         <v>5</v>
       </c>
-      <c r="B8" s="137"/>
+      <c r="B8" s="176"/>
       <c r="D8" s="12"/>
       <c r="E8" s="46"/>
       <c r="F8" s="13"/>
@@ -8650,10 +8707,10 @@
       </c>
     </row>
     <row r="9" spans="1:30">
-      <c r="A9" s="140">
+      <c r="A9" s="169">
         <v>6</v>
       </c>
-      <c r="B9" s="141"/>
+      <c r="B9" s="170"/>
       <c r="D9" s="12"/>
       <c r="E9" s="46"/>
       <c r="F9" s="13"/>
@@ -8681,10 +8738,10 @@
       </c>
     </row>
     <row r="10" spans="1:30">
-      <c r="A10" s="138">
+      <c r="A10" s="178">
         <v>7</v>
       </c>
-      <c r="B10" s="139"/>
+      <c r="B10" s="179"/>
       <c r="C10" s="53"/>
       <c r="D10" s="8"/>
       <c r="E10" s="52"/>
@@ -8719,10 +8776,10 @@
       </c>
     </row>
     <row r="11" spans="1:30">
-      <c r="A11" s="136">
+      <c r="A11" s="175">
         <v>8</v>
       </c>
-      <c r="B11" s="137"/>
+      <c r="B11" s="176"/>
       <c r="C11" s="55"/>
       <c r="D11" s="56"/>
       <c r="E11" s="46"/>
@@ -8757,10 +8814,10 @@
       </c>
     </row>
     <row r="12" spans="1:30">
-      <c r="A12" s="140">
+      <c r="A12" s="169">
         <v>9</v>
       </c>
-      <c r="B12" s="141"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="57"/>
       <c r="D12" s="58"/>
       <c r="E12" s="57"/>
@@ -8795,10 +8852,10 @@
       </c>
     </row>
     <row r="13" spans="1:30">
-      <c r="A13" s="138">
+      <c r="A13" s="178">
         <v>10</v>
       </c>
-      <c r="B13" s="139"/>
+      <c r="B13" s="179"/>
       <c r="C13" s="59"/>
       <c r="D13" s="56"/>
       <c r="E13" s="55"/>
@@ -8828,10 +8885,10 @@
       </c>
     </row>
     <row r="14" spans="1:30">
-      <c r="A14" s="136">
+      <c r="A14" s="175">
         <v>11</v>
       </c>
-      <c r="B14" s="137"/>
+      <c r="B14" s="176"/>
       <c r="C14" s="59"/>
       <c r="D14" s="56"/>
       <c r="E14" s="55"/>
@@ -8862,10 +8919,10 @@
       </c>
     </row>
     <row r="15" spans="1:30">
-      <c r="A15" s="140">
+      <c r="A15" s="169">
         <v>12</v>
       </c>
-      <c r="B15" s="141"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="59"/>
       <c r="D15" s="56"/>
       <c r="E15" s="55"/>
@@ -8897,10 +8954,10 @@
       </c>
     </row>
     <row r="16" spans="1:30">
-      <c r="A16" s="138">
-        <v>13</v>
-      </c>
-      <c r="B16" s="139"/>
+      <c r="A16" s="178">
+        <v>13</v>
+      </c>
+      <c r="B16" s="179"/>
       <c r="C16" s="53"/>
       <c r="D16" s="54"/>
       <c r="E16" s="53"/>
@@ -8928,10 +8985,10 @@
       <c r="AA16" s="9"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="136">
+      <c r="A17" s="175">
         <v>14</v>
       </c>
-      <c r="B17" s="137"/>
+      <c r="B17" s="176"/>
       <c r="C17" s="55"/>
       <c r="D17" s="56"/>
       <c r="E17" s="55"/>
@@ -8959,10 +9016,10 @@
       <c r="AA17" s="13"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="140">
+      <c r="A18" s="169">
         <v>15</v>
       </c>
-      <c r="B18" s="141"/>
+      <c r="B18" s="170"/>
       <c r="C18" s="57"/>
       <c r="D18" s="58"/>
       <c r="E18" s="57"/>
@@ -8990,10 +9047,10 @@
       <c r="AA18" s="17"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="138">
+      <c r="A19" s="178">
         <v>16</v>
       </c>
-      <c r="B19" s="139"/>
+      <c r="B19" s="179"/>
       <c r="C19" s="53"/>
       <c r="D19" s="54"/>
       <c r="E19" s="53"/>
@@ -9021,10 +9078,10 @@
       <c r="AA19" s="13"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="136">
+      <c r="A20" s="175">
         <v>17</v>
       </c>
-      <c r="B20" s="137"/>
+      <c r="B20" s="176"/>
       <c r="C20" s="55"/>
       <c r="D20" s="56"/>
       <c r="E20" s="55"/>
@@ -9052,10 +9109,10 @@
       <c r="AA20" s="13"/>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="140">
+      <c r="A21" s="169">
         <v>18</v>
       </c>
-      <c r="B21" s="141"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="57"/>
       <c r="D21" s="56"/>
       <c r="E21" s="55"/>
@@ -9083,10 +9140,10 @@
       <c r="AA21" s="13"/>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="138">
+      <c r="A22" s="178">
         <v>19</v>
       </c>
-      <c r="B22" s="139"/>
+      <c r="B22" s="179"/>
       <c r="C22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="53"/>
@@ -9114,10 +9171,10 @@
       <c r="AA22" s="9"/>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="136">
+      <c r="A23" s="175">
         <v>20</v>
       </c>
-      <c r="B23" s="137"/>
+      <c r="B23" s="176"/>
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
       <c r="E23" s="55"/>
@@ -9149,10 +9206,10 @@
       <c r="AA23" s="13"/>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="140">
+      <c r="A24" s="169">
         <v>21</v>
       </c>
-      <c r="B24" s="141"/>
+      <c r="B24" s="170"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
       <c r="E24" s="46"/>
@@ -9180,10 +9237,10 @@
       <c r="AA24" s="17"/>
     </row>
     <row r="25" spans="1:27">
-      <c r="A25" s="138">
+      <c r="A25" s="178">
         <v>22</v>
       </c>
-      <c r="B25" s="139"/>
+      <c r="B25" s="179"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="52"/>
@@ -9211,10 +9268,10 @@
       <c r="AA25" s="13"/>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="136">
+      <c r="A26" s="175">
         <v>23</v>
       </c>
-      <c r="B26" s="137"/>
+      <c r="B26" s="176"/>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
       <c r="E26" s="46"/>
@@ -9242,10 +9299,10 @@
       <c r="AA26" s="13"/>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="140">
+      <c r="A27" s="169">
         <v>24</v>
       </c>
-      <c r="B27" s="141"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="51"/>
@@ -9274,6 +9331,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="AA1:AA2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
@@ -9290,40 +9381,6 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
